--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>使用底板编号</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>2015年7月23日</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>zhang3</t>
+  </si>
+  <si>
+    <t>Zhang San</t>
   </si>
 </sst>
 </file>
@@ -437,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +557,50 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>使用底板编号</t>
   </si>
@@ -104,6 +104,30 @@
   </si>
   <si>
     <t>Zhang San</t>
+  </si>
+  <si>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>li4</t>
+  </si>
+  <si>
+    <t>四十四</t>
+  </si>
+  <si>
+    <t>王五</t>
+  </si>
+  <si>
+    <t>wang5</t>
+  </si>
+  <si>
+    <t>五呜呜</t>
+  </si>
+  <si>
+    <t>芙源蛇毒眼部精华套装特级代理</t>
+  </si>
+  <si>
+    <t>芙源蛇毒眼部精华套装特约代理</t>
   </si>
 </sst>
 </file>
@@ -446,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -602,6 +626,58 @@
         <v>26</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
